--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>23.10.2024</t>
+  </si>
+  <si>
+    <t>30.10.2024</t>
   </si>
 </sst>
 </file>
@@ -540,13 +543,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -561,13 +564,13 @@
     <col min="10" max="10" width="9.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
     <col min="12" max="13" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.53125" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.46484375" customWidth="1"/>
+    <col min="14" max="15" width="10.53125" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -606,17 +609,20 @@
       <c r="N1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -641,17 +647,18 @@
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -676,17 +683,18 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="21"/>
+      <c r="Q3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -713,14 +721,15 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="9"/>
+      <c r="Q4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -745,11 +754,12 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="21"/>
+      <c r="Q5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -776,8 +786,9 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -808,8 +819,9 @@
       <c r="L7" s="22"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -836,8 +848,9 @@
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -894,8 +908,9 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -928,8 +943,9 @@
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -946,8 +962,9 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -960,7 +977,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -973,7 +990,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -986,7 +1003,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>30.10.2024</t>
+  </si>
+  <si>
+    <t>1.11.2024</t>
   </si>
 </sst>
 </file>
@@ -543,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -565,12 +568,12 @@
     <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
     <col min="12" max="13" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.53125" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.46484375" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -612,17 +615,20 @@
       <c r="O1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -648,17 +654,18 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="9"/>
+      <c r="R2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -684,17 +691,18 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="21"/>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="21"/>
+      <c r="R3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -722,14 +730,15 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="Q4" s="8" t="s">
+      <c r="P4" s="9"/>
+      <c r="R4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -755,11 +764,12 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="21"/>
-      <c r="Q5" s="9" t="s">
+      <c r="P5" s="21"/>
+      <c r="R5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -787,8 +797,9 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -820,8 +831,9 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P7" s="21"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -849,8 +861,9 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="M9" s="23"/>
       <c r="N9" s="9"/>
       <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P9" s="21"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -909,8 +923,9 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -944,8 +959,9 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -963,8 +979,9 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="9"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -977,7 +994,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -990,7 +1007,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1003,7 +1020,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>1.11.2024</t>
+  </si>
+  <si>
+    <t>06.11.2024</t>
+  </si>
+  <si>
+    <t>22.11.2024</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,11 +208,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -264,6 +283,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,13 +570,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -568,12 +592,14 @@
     <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
     <col min="12" max="13" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.53125" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="20" max="20" width="15.46484375" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="27" max="27" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -618,17 +644,27 @@
       <c r="P1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -654,18 +690,24 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="Y2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="AA2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -691,18 +733,24 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="R3" s="8" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="Y3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -730,15 +778,21 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="R4" s="8" t="s">
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="Y4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -764,12 +818,18 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="R5" s="9" t="s">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="Y5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -797,9 +857,15 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -831,9 +897,17 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -861,9 +935,15 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -895,9 +975,17 @@
       <c r="M9" s="23"/>
       <c r="N9" s="9"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -923,9 +1011,15 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -959,9 +1053,15 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -979,9 +1079,15 @@
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -994,7 +1100,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1007,7 +1113,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1020,7 +1126,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>22.11.2024</t>
+  </si>
+  <si>
+    <t>02.12.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +151,12 @@
       <u val="double"/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,6 +299,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,33 +584,34 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.53125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="4"/>
+    <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="4"/>
     <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.53125" customWidth="1"/>
-    <col min="17" max="17" width="11.19921875" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5546875" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.33203125" customWidth="1"/>
     <col min="26" max="26" width="19.33203125" customWidth="1"/>
-    <col min="27" max="27" width="15.46484375" customWidth="1"/>
+    <col min="27" max="27" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -650,7 +662,9 @@
       <c r="R1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -664,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -707,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -736,7 +750,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="26"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -750,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -781,7 +795,7 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -792,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -821,7 +835,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="25"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -829,7 +843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -860,12 +874,12 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="29"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -900,14 +914,14 @@
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="29"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -938,12 +952,12 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="21"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -978,14 +992,14 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="25"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="25"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1014,12 +1028,12 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1056,12 +1070,12 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -1082,12 +1096,12 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1100,7 +1114,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1113,7 +1127,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1126,7 +1140,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1139,7 +1153,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1152,7 +1166,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1165,7 +1179,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1178,7 +1192,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1191,7 +1205,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1204,7 +1218,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>02.12.2024</t>
+  </si>
+  <si>
+    <t>08.12.2024</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,31 +593,32 @@
       <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.53125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="4"/>
+    <col min="4" max="4" width="10.53125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9.1328125" style="4"/>
     <col min="7" max="7" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5546875" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="8" max="9" width="10.46484375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.53125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.53125" customWidth="1"/>
+    <col min="17" max="17" width="11.19921875" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="21.33203125" customWidth="1"/>
     <col min="26" max="26" width="19.33203125" customWidth="1"/>
-    <col min="27" max="27" width="15.44140625" customWidth="1"/>
+    <col min="27" max="27" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -665,7 +672,9 @@
       <c r="S1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="30" t="s">
+        <v>33</v>
+      </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="Y1" t="s">
@@ -678,7 +687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -707,8 +716,8 @@
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="25"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="Y2" s="9" t="s">
@@ -721,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -751,7 +760,7 @@
       <c r="Q3" s="25"/>
       <c r="R3" s="26"/>
       <c r="S3" s="25"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="Y3" s="8" t="s">
@@ -764,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -796,7 +805,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
       <c r="S4" s="25"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="25"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="Y4" s="8" t="s">
@@ -806,7 +815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -836,14 +845,14 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="Y5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -875,11 +884,11 @@
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
       <c r="S6" s="29"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="29"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -915,13 +924,13 @@
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="29"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -953,11 +962,11 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="29"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -993,13 +1002,13 @@
       <c r="Q9" s="26"/>
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="25"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1029,11 +1038,11 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="1"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1071,11 +1080,11 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="25"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -1097,11 +1106,11 @@
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1114,7 +1123,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1127,7 +1136,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1140,7 +1149,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1153,7 +1162,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1166,7 +1175,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1179,7 +1188,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -1192,7 +1201,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -1205,7 +1214,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -1218,7 +1227,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -121,13 +121,16 @@
   </si>
   <si>
     <t>08.12.2024</t>
+  </si>
+  <si>
+    <t>13.12.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,22 +153,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u val="double"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -260,21 +248,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,29 +261,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -587,13 +555,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -613,6 +581,7 @@
     <col min="18" max="18" width="11.33203125" customWidth="1"/>
     <col min="19" max="19" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.73046875" customWidth="1"/>
     <col min="25" max="25" width="21.33203125" customWidth="1"/>
     <col min="26" max="26" width="19.33203125" customWidth="1"/>
     <col min="27" max="27" width="15.46484375" customWidth="1"/>
@@ -654,28 +623,30 @@
       <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="V1" s="1"/>
       <c r="Y1" t="s">
         <v>17</v>
@@ -691,7 +662,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -707,26 +678,28 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="9">
+      <c r="L2" s="20">
         <v>2</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="1"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
       <c r="V2" s="1"/>
       <c r="Y2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -734,7 +707,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
@@ -750,26 +723,36 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="9">
+      <c r="L3" s="20">
         <v>2</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="1"/>
+      <c r="O3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="Y3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -777,7 +760,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
@@ -797,21 +780,21 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="1"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="1"/>
       <c r="Y4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -819,7 +802,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3"/>
@@ -835,18 +818,26 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="9">
+      <c r="L5" s="20">
         <v>2</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="1"/>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="Y5" s="9" t="s">
         <v>13</v>
@@ -856,76 +847,94 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>5</v>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
+      <c r="D6" s="3">
+        <v>5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="1"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="20">
+        <v>2</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="18"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15">
+    <row r="7" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="1"/>
       <c r="W7"/>
       <c r="X7"/>
@@ -934,311 +943,209 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="14" t="s">
-        <v>4</v>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="9">
-        <v>2</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="L8" s="20">
+        <v>5</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="1"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:27" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="V9" s="1"/>
-      <c r="W9"/>
-      <c r="X9"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="A10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="9">
-        <v>5</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="A11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="A12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="A17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="A18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="A19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>13.12.2024</t>
+  </si>
+  <si>
+    <t>19.12.2024</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -582,6 +585,7 @@
     <col min="19" max="19" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="21" max="21" width="10.73046875" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" customWidth="1"/>
     <col min="25" max="25" width="21.33203125" customWidth="1"/>
     <col min="26" max="26" width="19.33203125" customWidth="1"/>
     <col min="27" max="27" width="15.46484375" customWidth="1"/>
@@ -647,7 +651,9 @@
       <c r="U1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y1" t="s">
         <v>17</v>
       </c>
@@ -692,7 +698,7 @@
       </c>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="1"/>
+      <c r="V2" s="9"/>
       <c r="Y2" s="9" t="s">
         <v>16</v>
       </c>
@@ -745,7 +751,7 @@
       <c r="U3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="1"/>
+      <c r="V3" s="9"/>
       <c r="Y3" s="8" t="s">
         <v>0</v>
       </c>
@@ -790,7 +796,7 @@
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
-      <c r="V4" s="1"/>
+      <c r="V4" s="9"/>
       <c r="Y4" s="8" t="s">
         <v>2</v>
       </c>
@@ -838,7 +844,7 @@
       <c r="U5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="1"/>
+      <c r="V5" s="9"/>
       <c r="Y5" s="9" t="s">
         <v>13</v>
       </c>
@@ -883,7 +889,9 @@
       </c>
       <c r="T6" s="18"/>
       <c r="U6" s="16"/>
-      <c r="V6" s="1"/>
+      <c r="V6" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
@@ -935,7 +943,9 @@
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
-      <c r="V7" s="1"/>
+      <c r="V7" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="W7"/>
       <c r="X7"/>
     </row>
@@ -979,7 +989,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
@@ -1025,7 +1035,9 @@
       <c r="U9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="1"/>
+      <c r="V9" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>19.12.2024</t>
+  </si>
+  <si>
+    <t>25.12.2024</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,11 +227,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -276,6 +290,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -564,7 +581,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -586,6 +603,7 @@
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="21" max="21" width="10.73046875" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.46484375" customWidth="1"/>
     <col min="25" max="25" width="21.33203125" customWidth="1"/>
     <col min="26" max="26" width="19.33203125" customWidth="1"/>
     <col min="27" max="27" width="15.46484375" customWidth="1"/>
@@ -654,6 +672,9 @@
       <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="W1" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="Y1" t="s">
         <v>17</v>
       </c>
@@ -699,6 +720,9 @@
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="9"/>
+      <c r="W2" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Y2" s="9" t="s">
         <v>16</v>
       </c>
@@ -752,6 +776,9 @@
         <v>4</v>
       </c>
       <c r="V3" s="9"/>
+      <c r="W3" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="Y3" s="8" t="s">
         <v>0</v>
       </c>
@@ -797,6 +824,7 @@
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
       <c r="Y4" s="8" t="s">
         <v>2</v>
       </c>
@@ -845,6 +873,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
       <c r="Y5" s="9" t="s">
         <v>13</v>
       </c>
@@ -892,6 +921,9 @@
       <c r="V6" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="W6" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
@@ -946,7 +978,9 @@
       <c r="V7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="W7"/>
+      <c r="W7" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="X7"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
@@ -990,6 +1024,7 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
@@ -1036,6 +1071,9 @@
         <v>4</v>
       </c>
       <c r="V9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>25.12.2024</t>
+  </si>
+  <si>
+    <t>08.01.2025</t>
+  </si>
+  <si>
+    <t>12.01.2025</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,35 +220,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -274,17 +256,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,8 +264,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -603,13 +575,13 @@
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="21" max="21" width="10.73046875" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="23" width="14.46484375" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" customWidth="1"/>
-    <col min="27" max="27" width="15.46484375" customWidth="1"/>
+    <col min="23" max="26" width="14.46484375" customWidth="1"/>
+    <col min="28" max="28" width="21.33203125" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" customWidth="1"/>
+    <col min="30" max="30" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -645,47 +617,53 @@
       <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -705,35 +683,42 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="20">
+      <c r="L2" s="16">
         <v>2</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
       <c r="V2" s="9"/>
       <c r="W2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="17"/>
+      <c r="AB2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="AD2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -747,13 +732,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="20">
+      <c r="L3" s="16">
         <v>2</v>
       </c>
       <c r="M3" s="9"/>
@@ -764,11 +749,11 @@
       <c r="P3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="9"/>
       <c r="R3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="16"/>
+      <c r="S3" s="9"/>
       <c r="T3" s="12" t="s">
         <v>4</v>
       </c>
@@ -779,17 +764,22 @@
       <c r="W3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AB3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -813,26 +803,29 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="20"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="Y4" s="8" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="17"/>
+      <c r="AB4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -846,13 +839,13 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="20">
+      <c r="L5" s="16">
         <v>2</v>
       </c>
       <c r="M5" s="9"/>
@@ -863,9 +856,9 @@
       <c r="P5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="12" t="s">
         <v>4</v>
       </c>
@@ -874,18 +867,21 @@
       </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="Y5" s="9" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="17"/>
+      <c r="AB5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3">
@@ -900,7 +896,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <v>2</v>
       </c>
       <c r="M6" s="12" t="s">
@@ -910,22 +906,29 @@
         <v>4</v>
       </c>
       <c r="O6" s="9"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="16"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="9"/>
       <c r="V6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="W6" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="X6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -943,7 +946,7 @@
       <c r="G7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -971,19 +974,24 @@
       <c r="Q7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
       <c r="V7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="X7"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="17"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1011,22 +1019,25 @@
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="20">
+      <c r="L8" s="16">
         <v>5</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1076,8 +1087,15 @@
       <c r="W9" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="X9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1089,7 +1107,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1101,7 +1119,7 @@
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1113,7 +1131,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1125,7 +1143,7 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1137,7 +1155,7 @@
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1149,7 +1167,7 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="C16"/>
       <c r="D16"/>

--- a/OLD/Davamiyyet ve qiymetlendirme.xlsx
+++ b/OLD/Davamiyyet ve qiymetlendirme.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>Soltan Abdullayev</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>12.01.2025</t>
+  </si>
+  <si>
+    <t>17.01.2025</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -266,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -575,13 +581,13 @@
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
     <col min="21" max="21" width="10.73046875" customWidth="1"/>
     <col min="22" max="22" width="10.6640625" customWidth="1"/>
-    <col min="23" max="26" width="14.46484375" customWidth="1"/>
-    <col min="28" max="28" width="21.33203125" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" customWidth="1"/>
-    <col min="30" max="30" width="15.46484375" customWidth="1"/>
+    <col min="23" max="28" width="14.46484375" customWidth="1"/>
+    <col min="30" max="30" width="21.33203125" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -653,17 +659,21 @@
       <c r="Y1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Z1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="17"/>
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -707,18 +717,22 @@
       <c r="Y2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="17"/>
-      <c r="AB2" s="9" t="s">
+      <c r="Z2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AD2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AF2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -768,18 +782,22 @@
       <c r="Y3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="17"/>
-      <c r="AB3" s="8" t="s">
+      <c r="Z3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AD3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AE3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -817,15 +835,17 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="17"/>
-      <c r="AB4" s="8" t="s">
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AD4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -869,12 +889,14 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="17"/>
-      <c r="AB5" s="9" t="s">
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AD5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -926,9 +948,13 @@
       <c r="Y6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="17"/>
-    </row>
-    <row r="7" spans="1:30" s="13" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Z6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" s="13" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -988,10 +1014,14 @@
       <c r="Y7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="Z7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1035,9 +1065,11 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="17"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1093,9 +1125,13 @@
       <c r="Y9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="17"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="Z9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1107,7 +1143,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1119,7 +1155,7 @@
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1131,7 +1167,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1143,7 +1179,7 @@
       <c r="J13"/>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1155,7 +1191,7 @@
       <c r="J14"/>
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1167,7 +1203,7 @@
       <c r="J15"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16"/>
       <c r="C16"/>
       <c r="D16"/>
